--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -58,39 +58,39 @@
     <t>Букет 1</t>
   </si>
   <si>
+    <t>763B8077.jpg</t>
+  </si>
+  <si>
+    <t>Хризантема</t>
+  </si>
+  <si>
     <t>Хризантема кустовая -5шт, Эвкалипт -2шт, Упаковка дизайнерская -2шт</t>
   </si>
   <si>
-    <t>763B8077.jpg</t>
-  </si>
-  <si>
-    <t>Хризантема</t>
-  </si>
-  <si>
     <t>Букет 2</t>
   </si>
   <si>
+    <t>763B8093.jpg</t>
+  </si>
+  <si>
+    <t>Роза Эквадор</t>
+  </si>
+  <si>
     <t>Роза Эквадор -11шт, Эвкалипт -2шт, Упаковка дизайнерская 3</t>
   </si>
   <si>
-    <t>763B8093.jpg</t>
-  </si>
-  <si>
-    <t>Роза Эквадор</t>
-  </si>
-  <si>
     <t>Букет 3</t>
   </si>
   <si>
+    <t>763B8102.jpg</t>
+  </si>
+  <si>
+    <t>Роза французская</t>
+  </si>
+  <si>
     <t>Роза французская -9шт, Эвкалипт -2шт, Упаковка дизайнерская -3шт</t>
   </si>
   <si>
-    <t>763B8102.jpg</t>
-  </si>
-  <si>
-    <t>Роза французская</t>
-  </si>
-  <si>
     <t>Букет 4</t>
   </si>
   <si>
@@ -100,287 +100,287 @@
     <t>Букет 5</t>
   </si>
   <si>
+    <t>763B8187.jpg</t>
+  </si>
+  <si>
     <t>Роза эквадор -15шт, Кермек -2шт, Эвкалипт -2шт, Упаковка дизайнерская -4шт</t>
   </si>
   <si>
-    <t>763B8187.jpg</t>
-  </si>
-  <si>
     <t>Букет 6</t>
   </si>
   <si>
+    <t>763B8235.jpg</t>
+  </si>
+  <si>
     <t>Роза Эквадор-9шт, Писташ -2шт, Упаковка дизайнерская -2шт</t>
   </si>
   <si>
-    <t>763B8235.jpg</t>
-  </si>
-  <si>
     <t>Букет 7</t>
   </si>
   <si>
+    <t>763B8261.jpg</t>
+  </si>
+  <si>
+    <t>Цимбидиум</t>
+  </si>
+  <si>
     <t>Цимбидиум -7шт, Кермек-1шт, Упаковка дизайн -2шт</t>
   </si>
   <si>
-    <t>763B8261.jpg</t>
-  </si>
-  <si>
-    <t>Цимбидиум</t>
-  </si>
-  <si>
     <t>Букет 8</t>
   </si>
   <si>
+    <t>763B8271.jpg</t>
+  </si>
+  <si>
     <t>Роза эквадор-5шт, Кермек-1шт, Упаковка дизайнерская -1шт</t>
   </si>
   <si>
-    <t>763B8271.jpg</t>
-  </si>
-  <si>
     <t>Букет 9</t>
   </si>
   <si>
+    <t>763B8295.jpg</t>
+  </si>
+  <si>
     <t>Цимбидиум -7шт, Писташ -2шт, Упаковка дизайнерская 2шт</t>
   </si>
   <si>
-    <t>763B8295.jpg</t>
-  </si>
-  <si>
     <t>Букет 10</t>
   </si>
   <si>
+    <t>763B8316.jpg</t>
+  </si>
+  <si>
     <t>Роза Эквадор -13шт, Эвкалипт -2шт, Упаковка дизайнерская 2шт</t>
   </si>
   <si>
-    <t>763B8316.jpg</t>
-  </si>
-  <si>
     <t>Букет 11</t>
   </si>
   <si>
+    <t>763B8345.jpg</t>
+  </si>
+  <si>
+    <t>Хризантема кустовая</t>
+  </si>
+  <si>
     <t>Хризантема кустовая 9шт, Упаковка гигант -1шт</t>
   </si>
   <si>
-    <t>763B8345.jpg</t>
-  </si>
-  <si>
-    <t>Хризантема кустовая</t>
-  </si>
-  <si>
     <t>Букет 12</t>
   </si>
   <si>
+    <t>763B8377.jpg</t>
+  </si>
+  <si>
     <t>Роза Эквадор 7шт, Гипсофила -1шт, Эвкалипт -2шт, Упаковка дизайнерская -3шт</t>
   </si>
   <si>
-    <t>763B8377.jpg</t>
-  </si>
-  <si>
     <t>Букет 13</t>
   </si>
   <si>
+    <t>763B6994.jpg</t>
+  </si>
+  <si>
     <t>Роза Эквадор -7шт, Эвкалипт -2шт, Гипсофила -1шт, Упаковка дизайнерская -2шт</t>
   </si>
   <si>
-    <t>763B6994.jpg</t>
-  </si>
-  <si>
     <t>Букет 14</t>
   </si>
   <si>
+    <t>763B7014.jpg</t>
+  </si>
+  <si>
     <t>Роза Эквадор -3шт, Цимбидиум -3шт, Лилия-1шт, Гипсофила -2шт, Эрингиум-1шт, Эвкалипт -1шт, Упаковка дизайнерская -2шт</t>
   </si>
   <si>
-    <t>763B7014.jpg</t>
-  </si>
-  <si>
     <t>Букет 15</t>
   </si>
   <si>
+    <t>763B7044.jpg</t>
+  </si>
+  <si>
     <t>Роза Эквадор -9шт ,Эвкалипт-3шт, Пленка матовая-4шт</t>
   </si>
   <si>
-    <t>763B7044.jpg</t>
-  </si>
-  <si>
     <t>Букет 16</t>
   </si>
   <si>
+    <t>763B7033.jpg</t>
+  </si>
+  <si>
+    <t>Орхидея цимбидиум</t>
+  </si>
+  <si>
     <t>Орхидея цимбидиум -9шт, Эвкалипт -2шт, Тишью -2шт, Коробка шляпная -1шт</t>
   </si>
   <si>
-    <t>763B7033.jpg</t>
-  </si>
-  <si>
-    <t>Орхидея цимбидиум</t>
-  </si>
-  <si>
     <t>Букет 17</t>
   </si>
   <si>
+    <t>763B7059.jpg</t>
+  </si>
+  <si>
+    <t>Диантус сортовой</t>
+  </si>
+  <si>
     <t>Диантус сортовой-11шт, Альстромерия -4шт, Гипсофила -1шт, Пленка матовая -3шт</t>
   </si>
   <si>
-    <t>763B7059.jpg</t>
-  </si>
-  <si>
-    <t>Диантус сортовой</t>
-  </si>
-  <si>
     <t>Букет 18</t>
   </si>
   <si>
+    <t>763B7089.jpg</t>
+  </si>
+  <si>
+    <t>Хризантема Бакарди</t>
+  </si>
+  <si>
     <t>Хризантема Бакарди -5шт, Альстромери -6шт, Пленка матовая -3шт</t>
   </si>
   <si>
-    <t>763B7089.jpg</t>
-  </si>
-  <si>
-    <t>Хризантема Бакарди</t>
-  </si>
-  <si>
     <t>Букет 19</t>
   </si>
   <si>
+    <t>763B7099 (1).jpg</t>
+  </si>
+  <si>
     <t>Хризантема кустовая -5шт, Диантус кустовой -4шт, Статица-1шт, Пленка матовая-3шт</t>
   </si>
   <si>
-    <t>763B7099 (1).jpg</t>
-  </si>
-  <si>
     <t>Букет 20</t>
   </si>
   <si>
+    <t>763B7143 (1).jpg</t>
+  </si>
+  <si>
     <t>Роза Эквадор -3шт, Альстромерия -6шт, Диантус сортовой -8шт, Рускус-5шт, Упаковка дизайнерская -3шт</t>
   </si>
   <si>
-    <t>763B7143 (1).jpg</t>
-  </si>
-  <si>
     <t>Букет 21</t>
   </si>
   <si>
+    <t>763B7154.jpg</t>
+  </si>
+  <si>
     <t>Роза Эквадор -3шт, Бакарди - 4шт, Эвкалипт -2шт, Статица -3шт, Пленка матовая -2шт</t>
   </si>
   <si>
-    <t>763B7154.jpg</t>
-  </si>
-  <si>
     <t>Букет 22</t>
   </si>
   <si>
+    <t>763B7168.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диантус сортовой </t>
+  </si>
+  <si>
     <t>Диантус сортовой -21шт, Гипсофила -2шт, Упаковка дизайнерская -3шт</t>
   </si>
   <si>
-    <t>763B7168.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Диантус сортовой </t>
-  </si>
-  <si>
     <t>Букет 23</t>
   </si>
   <si>
+    <t>763B7232 (1).jpg</t>
+  </si>
+  <si>
     <t>Роза французская -7шт, Альстромерия -2шт, Статица-2шт, Рускус-5шт, Упаковка дизайнерская -4шт</t>
   </si>
   <si>
-    <t>763B7232 (1).jpg</t>
-  </si>
-  <si>
     <t>Букет 24</t>
   </si>
   <si>
+    <t>763B7237.jpg</t>
+  </si>
+  <si>
     <t>Диантус сортовой-11шт, Гипсофила -1шт, Упаковка матовая -2шт</t>
   </si>
   <si>
-    <t>763B7237.jpg</t>
-  </si>
-  <si>
     <t>Букет 25</t>
   </si>
   <si>
+    <t>763B7257 (1).jpg</t>
+  </si>
+  <si>
     <t>Роза эквадор-5шт, Хризантема бакарди-6шт, Диантус кустовой -4шт, Папаратник-3шт, Упаковка матовая -4шт</t>
   </si>
   <si>
-    <t>763B7257 (1).jpg</t>
-  </si>
-  <si>
     <t>Букет 26</t>
   </si>
   <si>
+    <t>763B7285 (1).jpg</t>
+  </si>
+  <si>
     <t>Роза Эквадор -11шт, Альстромерия -4шт, Эвкалипт-3шт, Упаковка гигант-1шт</t>
   </si>
   <si>
-    <t>763B7285 (1).jpg</t>
-  </si>
-  <si>
     <t>Букет 27</t>
   </si>
   <si>
+    <t>763B7338 (1).jpg</t>
+  </si>
+  <si>
     <t>Роза Эквадор -1шт, Диантус кустовой -4шт, Статица-4шт, Упаковка дизайнерская 2</t>
   </si>
   <si>
-    <t>763B7338 (1).jpg</t>
-  </si>
-  <si>
     <t>Букет 28</t>
   </si>
   <si>
+    <t>763B7376.jpg</t>
+  </si>
+  <si>
     <t>Роза Эквадор -3шт, Рускус-3шт, Статица-1шт, Фоамиран-1шт</t>
   </si>
   <si>
-    <t>763B7376.jpg</t>
-  </si>
-  <si>
     <t>Букет 29</t>
   </si>
   <si>
+    <t>763B9613.jpg</t>
+  </si>
+  <si>
+    <t>Альстромерия</t>
+  </si>
+  <si>
     <t>Альстромерия -4шт, Матиолла -3шт, Лизиантус -4шт, Эвкалипт-3шт, Упаковка гигант-1шт</t>
   </si>
   <si>
-    <t>763B9613.jpg</t>
-  </si>
-  <si>
-    <t>Альстромерия</t>
-  </si>
-  <si>
     <t>Букет 30</t>
   </si>
   <si>
+    <t>763B9635.jpg</t>
+  </si>
+  <si>
+    <t>Роза Россия</t>
+  </si>
+  <si>
     <t>Роза Россия -13шт, Гипсофила -1шт, Упаковка дизайнерская-3шт</t>
   </si>
   <si>
-    <t>763B9635.jpg</t>
-  </si>
-  <si>
-    <t>Роза Россия</t>
-  </si>
-  <si>
     <t>Букет 31</t>
   </si>
   <si>
+    <t>763B0012.jpg</t>
+  </si>
+  <si>
+    <t>Гортензия</t>
+  </si>
+  <si>
     <t>Гортензия -1шт, Альстромерия-3шт, Роза французская-3шт, Лизиантус-2шт, Эвкалипт -2шт, Упаковка-3шт</t>
   </si>
   <si>
-    <t>763B0012.jpg</t>
-  </si>
-  <si>
-    <t>Гортензия</t>
-  </si>
-  <si>
     <t>Букет 32</t>
   </si>
   <si>
+    <t>763B9743.jpg</t>
+  </si>
+  <si>
     <t>Роза французская-11шт, Упаковка гигант -1шт</t>
-  </si>
-  <si>
-    <t>763B9743.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -404,10 +404,18 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Nunito"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +426,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -438,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -446,13 +460,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -462,18 +470,20 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,7 +704,7 @@
     <col customWidth="1" min="1" max="1" width="4.38"/>
     <col customWidth="1" min="2" max="2" width="21.88"/>
     <col customWidth="1" min="3" max="3" width="4.88"/>
-    <col customWidth="1" min="4" max="4" width="29.0"/>
+    <col customWidth="1" min="4" max="4" width="72.25"/>
     <col customWidth="1" min="5" max="5" width="24.13"/>
     <col customWidth="1" min="6" max="6" width="13.38"/>
     <col customWidth="1" min="7" max="7" width="7.38"/>
@@ -706,7 +716,6 @@
     <col customWidth="1" min="13" max="14" width="7.38"/>
     <col customWidth="1" min="15" max="15" width="18.88"/>
     <col customWidth="1" min="16" max="17" width="12.63"/>
-    <col customWidth="1" min="18" max="27" width="8.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -728,1368 +737,1397 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="5">
+        <v>2530.0</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7">
-        <v>2530.0</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="M2" s="9">
+      <c r="M2" s="5">
         <v>50.0</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="5">
         <v>50.0</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="5">
+        <v>6690.0</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7">
-        <v>6690.0</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="M3" s="9">
+      <c r="M3" s="5">
         <v>60.0</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="5">
         <v>100.0</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="5">
+        <v>5460.0</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="7">
-        <v>5460.0</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="M4" s="9">
+      <c r="M4" s="5">
         <v>55.0</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="5">
         <v>50.0</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2850.0</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7390.0</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5150.0</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2990.0</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2950.0</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2850.0</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7390.0</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4150.0</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4300.0</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3350.0</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3890.0</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3950.0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3490.0</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="B18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3090.0</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3190.0</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2770.0</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="5">
+        <v>4170.0</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3690.0</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4040.0</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5030.0</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="7">
-        <v>2850.0</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="I24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2240.0</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="5">
         <v>40.0</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N25" s="5">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="5">
+        <v>4390.0</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="N26" s="5">
         <v>50.0</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7">
-        <v>7390.0</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M6" s="9">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="5">
+        <v>6250.0</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M27" s="5">
         <v>60.0</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N27" s="5">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1990.0</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1690.0</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="N29" s="5">
         <v>50.0</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7">
-        <v>5150.0</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M7" s="9">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="5">
+        <v>4599.0</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M30" s="5">
         <v>50.0</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N30" s="5">
         <v>60.0</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2990.0</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M8" s="9">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="5">
+        <v>3490.0</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M31" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="5">
+        <v>4399.0</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4850.0</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M33" s="6">
         <v>45.0</v>
       </c>
-      <c r="N8" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2950.0</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>45.0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2850.0</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>40.0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="7">
-        <v>7390.0</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>60.0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="7">
-        <v>4150.0</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>70.0</v>
-      </c>
-      <c r="N12" s="9">
+      <c r="N33" s="5">
         <v>100.0</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="7">
-        <v>4300.0</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>45.0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3350.0</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>45.0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3890.0</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="7">
-        <v>3950.0</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>45.0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="7">
-        <v>3490.0</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="7">
-        <v>3090.0</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>45.0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="7">
-        <v>3190.0</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>45.0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2770.0</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>45.0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="7">
-        <v>4170.0</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="7">
-        <v>3690.0</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>45.0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="7">
-        <v>4040.0</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="7">
-        <v>5030.0</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2240.0</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>40.0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="7">
-        <v>4390.0</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M26" s="9">
-        <v>55.0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="7">
-        <v>6250.0</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M27" s="9">
-        <v>60.0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1990.0</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>40.0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1690.0</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M29" s="9">
-        <v>35.0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="7">
-        <v>4599.0</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M30" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="N30" s="9">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="7">
-        <v>3490.0</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="7">
-        <v>4399.0</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M32" s="9">
-        <v>55.0</v>
-      </c>
-      <c r="N32" s="9">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="7">
-        <v>4850.0</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M33" s="11">
-        <v>45.0</v>
-      </c>
-      <c r="N33" s="9">
-        <v>100.0</v>
-      </c>
-    </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="B37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="B38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="B39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="B40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="B41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="B42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="B43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="B44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="B45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="B47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="B48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="B49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="6"/>
+      <c r="B50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="6"/>
+      <c r="B51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="B53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="B54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="B55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="B56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="B57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="B58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="B59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="B60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="B61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="6"/>
+      <c r="B62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="B63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="B64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="B65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="B66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="B67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="B68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="B69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="B70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="B71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="B72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="B73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="H73" s="4"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="B74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="B75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="6"/>
+      <c r="B76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="6"/>
+      <c r="B77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="B78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="B79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="B80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="B81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="B82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="B83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="H84" s="6"/>
+      <c r="B84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="H85" s="6"/>
+      <c r="B85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="B86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="B87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="B88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="H89" s="6"/>
+      <c r="B89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="H90" s="6"/>
+      <c r="B90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="H91" s="6"/>
+      <c r="B91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="H92" s="6"/>
+      <c r="B92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="H93" s="6"/>
+      <c r="B93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="6"/>
+      <c r="B94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="B95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
